--- a/Design/01_管理/打合せ/20210822/20210822_アジェンダ.xlsx
+++ b/Design/01_管理/打合せ/20210822/20210822_アジェンダ.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>#</t>
     <phoneticPr fontId="1"/>
@@ -55,22 +55,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>小瀬、山本、福西、松瀬</t>
-    <rPh sb="0" eb="2">
-      <t>コセ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ヤマモト</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>フクニシ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>マツセ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>レビュー</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -99,6 +83,88 @@
     <rPh sb="2" eb="4">
       <t>カンリ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>小瀬、福西、松瀬</t>
+    <rPh sb="0" eb="2">
+      <t>コセ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>フクニシ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>マツセ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マーケティングが難しい。Webで宣伝しても、そもそも顧客となる企業が見ていないので、</t>
+    <rPh sb="8" eb="9">
+      <t>ムズカ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>センデン</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>コキャク</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>キギョウ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>ミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>営業になる。マンパワーが必要。</t>
+    <rPh sb="0" eb="2">
+      <t>エイギョウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>新規アプリ</t>
+    <rPh sb="0" eb="2">
+      <t>シンキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レンタルアプリ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>廃棄管理システム</t>
+    <rPh sb="0" eb="4">
+      <t>ハイキカンリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スーパー　事前購入アプリ</t>
+    <rPh sb="5" eb="7">
+      <t>ジゼン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>コウニュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>んｖｍ：ｚ7：</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>：おｐｇ8￥￥￥￥￥￥￥￥￥￥￥￥￥￥￥￥￥￥￥￥￥￥￥￥￥￥￥￥￥￥￥￥￥￥￥￥￥￥￥￥￥￥￥￥￥￥￥￥￥￥￥￥￥￥￥￥￥￥￥￥￥￥￥￥￥￥￥￥￥￥￥￥￥￥￥￥￥￥￥￥￥￥￥￥￥￥￥￥￥￥￥￥￥￥￥￥￥￥￥￥￥￥￥￥￥￥￥￥￥￥￥￥￥￥￥￥￥￥￥￥￥￥￥￥￥￥￥￥￥￥￥￥￥￥￥￥￥￥￥￥￥￥Ｋざああああ・ＬＬＤＦＸVCMンBれQ1MＬ・；：・いｵY:Ｋ；</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>い1ＺXCFAVHJKS３エDCｾ３エDCJPI@O0]；＠：Ｙ。。　</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -499,9 +565,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q96"/>
+  <dimension ref="A1:AG96"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="AG2" sqref="AF1:AL13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
@@ -510,12 +578,20 @@
     <col min="24" max="24" width="3.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AG2" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
@@ -539,12 +615,12 @@
       <c r="P3" s="8"/>
       <c r="Q3" s="8"/>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B4" s="4">
         <v>1</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
@@ -561,7 +637,7 @@
       <c r="P4" s="9"/>
       <c r="Q4" s="9"/>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B5" s="1">
         <v>2</v>
       </c>
@@ -583,12 +659,12 @@
       <c r="P5" s="9"/>
       <c r="Q5" s="9"/>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B6" s="1">
         <v>3</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D6" s="9"/>
       <c r="E6" s="9"/>
@@ -605,12 +681,12 @@
       <c r="P6" s="9"/>
       <c r="Q6" s="9"/>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B7" s="4">
         <v>4</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D7" s="9"/>
       <c r="E7" s="9"/>
@@ -627,11 +703,13 @@
       <c r="P7" s="9"/>
       <c r="Q7" s="9"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B8" s="1">
         <v>5</v>
       </c>
-      <c r="C8" s="9"/>
+      <c r="C8" s="9" t="s">
+        <v>12</v>
+      </c>
       <c r="D8" s="9"/>
       <c r="E8" s="9"/>
       <c r="F8" s="9"/>
@@ -647,17 +725,17 @@
       <c r="P8" s="9"/>
       <c r="Q8" s="9"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.2">
       <c r="C11" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B13" s="3">
         <v>1</v>
       </c>
@@ -665,6 +743,19 @@
         <f>$C$4</f>
         <v>工場管理システムのメリット</v>
       </c>
+      <c r="AF13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="C14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="C15" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B21" s="3">
@@ -698,6 +789,30 @@
       <c r="C42" s="3" t="str">
         <f>$C$7</f>
         <v>課題管理確認</v>
+      </c>
+    </row>
+    <row r="48" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B48" s="3">
+        <v>4</v>
+      </c>
+      <c r="C48" s="3" t="str">
+        <f>$C$8</f>
+        <v>新規アプリ</v>
+      </c>
+    </row>
+    <row r="49" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C49" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="50" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C50" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="51" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="D51" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="96" spans="3:3" x14ac:dyDescent="0.2">
@@ -719,7 +834,10 @@
     <mergeCell ref="O7:Q7"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="AG2" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>